--- a/TestCase_Table.xlsx
+++ b/TestCase_Table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Android-Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Android-Test\GitHub\Login-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -167,82 +167,82 @@
 valid and correct password</t>
   </si>
   <si>
+    <t>EmailBlankPasswordValid</t>
+  </si>
+  <si>
+    <t>1. User input email address "testEmail@gmail.com"
+2. User input password "testPass"
+3. Click "LOGIN" button</t>
+  </si>
+  <si>
+    <t>1. User input email address "testEmail@gmail.com"
+2. User input password "tes"
+3. Click "LOGIN" button</t>
+  </si>
+  <si>
+    <t>1. User input email address "testEmail@gmail.com"
+2. User input password "testpassmorethan10"
+3. Click "LOGIN" button</t>
+  </si>
+  <si>
+    <t>1. User input email address "testEmail@gmail.com"
+2. User input password ""
+3. Click "LOGIN" button</t>
+  </si>
+  <si>
+    <t>1. User input email address "testEmail@gmailcom"
+2. User input password "testPass"
+3. Click "LOGIN" button</t>
+  </si>
+  <si>
+    <t>1. User input email address "testEmail@gmail.com"
+2. User input password "tessPass"
+3. Click "LOGIN" button</t>
+  </si>
+  <si>
+    <t>1. User input email address "testEmail@gmailcom"
+2. User input password "tes"
+3. Click "LOGIN" button</t>
+  </si>
+  <si>
+    <t>1. User input email address "testEmail@gmailcom"
+2. User input password "testpassmorethan10"
+3. Click "LOGIN" button</t>
+  </si>
+  <si>
+    <t>1. User input email address "testEmail@gmailcom"
+2. User input password ""
+3. Click "LOGIN" button</t>
+  </si>
+  <si>
+    <t>1. User input email address "testEmail@gmailcom"
+2. User input password "tessPass"
+3. Click "LOGIN" button</t>
+  </si>
+  <si>
     <t>1. User input email address ""
-2. User input email address ""
-3. Click "LOGIN" button</t>
-  </si>
-  <si>
-    <t>1. User input email address "testEmail@gmail.com"
-2. User input email address ""
-3. Click "LOGIN" button</t>
-  </si>
-  <si>
-    <t>1. User input email address "testEmail@gmail.com"
-2. User input email address "testPass"
-3. Click "LOGIN" button</t>
-  </si>
-  <si>
-    <t>1. User input email address "testEmail@gmail.com"
-2. User input email address "tessPass"
-3. Click "LOGIN" button</t>
-  </si>
-  <si>
-    <t>1. User input email address "testEmail@gmailcom"
-2. User input email address "testPass"
-3. Click "LOGIN" button</t>
-  </si>
-  <si>
-    <t>1. User input email address "testEmail@gmail.com"
-2. User input email address "tes"
-3. Click "LOGIN" button</t>
-  </si>
-  <si>
-    <t>1. User input email address "testEmail@gmailcom"
-2. User input email address "tes"
-3. Click "LOGIN" button</t>
-  </si>
-  <si>
-    <t>1. User input email address "testEmail@gmail.com"
-2. User input email address "testpassmorethan10"
-3. Click "LOGIN" button</t>
-  </si>
-  <si>
-    <t>1. User input email address "testEmail@gmailcom"
-2. User input email address "testpassmorethan10"
-3. Click "LOGIN" button</t>
-  </si>
-  <si>
-    <t>1. User input email address "testEmail@gmailcom"
-2. User input email address ""
-3. Click "LOGIN" button</t>
-  </si>
-  <si>
-    <t>1. User input email address "testEmail@gmailcom"
-2. User input email address "tessPass"
+2. User input password "testPass"
 3. Click "LOGIN" button</t>
   </si>
   <si>
     <t>1. User input email address ""
-2. User input email address "testPass"
+2. User input password "tes"
 3. Click "LOGIN" button</t>
   </si>
   <si>
     <t>1. User input email address ""
-2. User input email address "tes"
+2. User input password "testpassmorethan10"
 3. Click "LOGIN" button</t>
   </si>
   <si>
     <t>1. User input email address ""
-2. User input email address "testpassmorethan10"
+2. User input password ""
 3. Click "LOGIN" button</t>
   </si>
   <si>
     <t>1. User input email address ""
-2. User input email address "tessPass"
-3. Click "LOGIN" button</t>
-  </si>
-  <si>
-    <t>EmailBlankPasswordValid</t>
+2. User input password "tessPass"
+3. Click "LOGIN" button</t>
   </si>
 </sst>
 </file>
@@ -627,7 +627,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +664,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -681,7 +681,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
@@ -698,7 +698,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
@@ -715,7 +715,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
@@ -732,7 +732,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
@@ -749,7 +749,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
@@ -766,7 +766,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>21</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>36</v>
@@ -885,7 +885,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>21</v>
@@ -902,7 +902,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>21</v>

--- a/TestCase_Table.xlsx
+++ b/TestCase_Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
   <si>
     <t>Test Case</t>
   </si>
@@ -168,61 +168,6 @@
   </si>
   <si>
     <t>EmailBlankPasswordValid</t>
-  </si>
-  <si>
-    <t>1. User input email address "testEmail@gmail.com"
-2. User input password "testPass"
-3. Click "LOGIN" button</t>
-  </si>
-  <si>
-    <t>1. User input email address "testEmail@gmail.com"
-2. User input password "tes"
-3. Click "LOGIN" button</t>
-  </si>
-  <si>
-    <t>1. User input email address "testEmail@gmail.com"
-2. User input password "testpassmorethan10"
-3. Click "LOGIN" button</t>
-  </si>
-  <si>
-    <t>1. User input email address "testEmail@gmail.com"
-2. User input password ""
-3. Click "LOGIN" button</t>
-  </si>
-  <si>
-    <t>1. User input email address "testEmail@gmailcom"
-2. User input password "testPass"
-3. Click "LOGIN" button</t>
-  </si>
-  <si>
-    <t>1. User input email address "testEmail@gmail.com"
-2. User input password "tessPass"
-3. Click "LOGIN" button</t>
-  </si>
-  <si>
-    <t>1. User input email address "testEmail@gmailcom"
-2. User input password "tes"
-3. Click "LOGIN" button</t>
-  </si>
-  <si>
-    <t>1. User input email address "testEmail@gmailcom"
-2. User input password "testpassmorethan10"
-3. Click "LOGIN" button</t>
-  </si>
-  <si>
-    <t>1. User input email address "testEmail@gmailcom"
-2. User input password ""
-3. Click "LOGIN" button</t>
-  </si>
-  <si>
-    <t>1. User input email address "testEmail@gmailcom"
-2. User input password "tessPass"
-3. Click "LOGIN" button</t>
-  </si>
-  <si>
-    <t>1. User input email address ""
-2. User input password "testPass"
-3. Click "LOGIN" button</t>
   </si>
   <si>
     <t>1. User input email address ""
@@ -240,8 +185,131 @@
 3. Click "LOGIN" button</t>
   </si>
   <si>
+    <t>EmailCaseSenPasswordValid</t>
+  </si>
+  <si>
+    <t>EmailCaseSenPasswordLessThanFour</t>
+  </si>
+  <si>
+    <t>EmailCaseSenPasswordMoreThanTen</t>
+  </si>
+  <si>
+    <t>EmailCaseSenPasswordBlank</t>
+  </si>
+  <si>
+    <t>EmailCaseSenPasswordIncorrect</t>
+  </si>
+  <si>
+    <t>Verify if user input capital letter email address
+and 
+valid but incorrect password</t>
+  </si>
+  <si>
+    <t>Verify if user input capital letter email address
+and 
+blank password</t>
+  </si>
+  <si>
+    <t>Verify if user input capital letter email address
+and 
+password more than 10 alphanumeric characters</t>
+  </si>
+  <si>
+    <t>Verify if user input capital letter email address 
+and 
+password less than 4 alphanumeric characters</t>
+  </si>
+  <si>
+    <t>Verify if user input capital letter email address 
+and 
+valid and correct password</t>
+  </si>
+  <si>
+    <t>1. User input email address "test_email@gmail.com"
+2. User input password "tes"
+3. Click "LOGIN" button</t>
+  </si>
+  <si>
+    <t>1. User input email address "test_email@gmail.com"
+2. User input password "testpassmorethan10"
+3. Click "LOGIN" button</t>
+  </si>
+  <si>
+    <t>1. User input email address "test_email@gmail.com"
+2. User input password ""
+3. Click "LOGIN" button</t>
+  </si>
+  <si>
+    <t>1. User input email address "test_email@gmailcom"
+2. User input password "tes"
+3. Click "LOGIN" button</t>
+  </si>
+  <si>
+    <t>1. User input email address "test_email@gmailcom"
+2. User input password "testpassmorethan10"
+3. Click "LOGIN" button</t>
+  </si>
+  <si>
+    <t>1. User input email address "test_email@gmailcom"
+2. User input password ""
+3. Click "LOGIN" button</t>
+  </si>
+  <si>
+    <t>1. User input email address "TEST_EMAIL@gmail.com"
+2. User input password "tes"
+3. Click "LOGIN" button</t>
+  </si>
+  <si>
+    <t>1. User input email address "TEST_EMAIL@gmail.com"
+2. User input password "testpassmorethan10"
+3. Click "LOGIN" button</t>
+  </si>
+  <si>
+    <t>1. User input email address "TEST_EMAIL@gmail.com"
+2. User input password ""
+3. Click "LOGIN" button</t>
+  </si>
+  <si>
+    <t>Login Success and navigates to "Material Login Example" page.</t>
+  </si>
+  <si>
+    <t>1. User input email address "test_email@gmail.com"
+2. User input password "testPass!"
+3. Click "LOGIN" button</t>
+  </si>
+  <si>
+    <t>1. User input email address "test_email@gmailcom"
+2. User input password "testPass!"
+3. Click "LOGIN" button</t>
+  </si>
+  <si>
     <t>1. User input email address ""
-2. User input password "tessPass"
+2. User input password "testPass!"
+3. Click "LOGIN" button</t>
+  </si>
+  <si>
+    <t>1. User input email address "TEST_EMAIL@gmail.com"
+2. User input password "testPass!"
+3. Click "LOGIN" button</t>
+  </si>
+  <si>
+    <t>1. User input email address "test_email@gmail.com"
+2. User input password "tessPass!"
+3. Click "LOGIN" button</t>
+  </si>
+  <si>
+    <t>1. User input email address "test_email@gmailcom"
+2. User input password "tessPass!"
+3. Click "LOGIN" button</t>
+  </si>
+  <si>
+    <t>1. User input email address ""
+2. User input password "tessPass!"
+3. Click "LOGIN" button</t>
+  </si>
+  <si>
+    <t>1. User input email address "TEST_EMAIL@gmail.com"
+2. User input password "tessPass!"
 3. Click "LOGIN" button</t>
   </si>
 </sst>
@@ -624,19 +692,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.140625" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -656,7 +724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -664,10 +732,10 @@
         <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>61</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
@@ -681,7 +749,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
@@ -698,7 +766,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
@@ -707,7 +775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -715,7 +783,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
@@ -724,7 +792,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -732,7 +800,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
@@ -749,7 +817,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
@@ -758,7 +826,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -766,7 +834,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>21</v>
@@ -775,7 +843,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -783,7 +851,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>21</v>
@@ -800,7 +868,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>21</v>
@@ -817,7 +885,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>21</v>
@@ -834,7 +902,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>21</v>
@@ -843,7 +911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -851,7 +919,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>21</v>
@@ -860,7 +928,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -868,7 +936,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>21</v>
@@ -885,7 +953,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>21</v>
@@ -902,17 +970,102 @@
         <v>34</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestCase_Table.xlsx
+++ b/TestCase_Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
   <si>
     <t>Test Case</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>PASSED</t>
-  </si>
-  <si>
-    <t>Show "Material Login Example" page.</t>
   </si>
   <si>
     <t>Test Case Description</t>
@@ -694,8 +691,8 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -729,13 +726,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
@@ -746,13 +743,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>18</v>
@@ -763,13 +760,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>18</v>
@@ -780,13 +777,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>18</v>
@@ -797,13 +794,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>18</v>
@@ -814,13 +811,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>18</v>
@@ -831,13 +828,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>18</v>
@@ -848,13 +845,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>18</v>
@@ -865,13 +862,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>18</v>
@@ -882,13 +879,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>18</v>
@@ -896,16 +893,16 @@
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>18</v>
@@ -916,13 +913,13 @@
         <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>18</v>
@@ -933,13 +930,13 @@
         <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>18</v>
@@ -950,13 +947,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>18</v>
@@ -967,13 +964,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -981,16 +978,16 @@
     </row>
     <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>18</v>
@@ -998,16 +995,16 @@
     </row>
     <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>18</v>
@@ -1015,16 +1012,16 @@
     </row>
     <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>18</v>
@@ -1032,16 +1029,16 @@
     </row>
     <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>18</v>
@@ -1049,16 +1046,16 @@
     </row>
     <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>18</v>

--- a/TestCase_Table.xlsx
+++ b/TestCase_Table.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Android-Test\GitHub\Login-Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samsung\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,59 +104,34 @@
 blank password</t>
   </si>
   <si>
-    <t>Verify if user input invalid email address 
+    <t>Verify if user input blank email address 
+and 
+blank password</t>
+  </si>
+  <si>
+    <t>Verify if user input blank email address 
 and 
 password less than 4 alphanumeric characters</t>
   </si>
   <si>
-    <t>Verify if user input invalid email address 
+    <t>Verify if user input blank email address 
 and 
 password more than 10 alphanumeric characters</t>
   </si>
   <si>
-    <t>Verify if user input invalid email address 
-and 
-blank password</t>
+    <t>Verify if user input valid email address 
+and 
+valid but incorrect password</t>
+  </si>
+  <si>
+    <t>Verify if user input valid email address 
+and 
+valid and correct password</t>
   </si>
   <si>
     <t>Verify if user input blank email address 
 and 
-blank password</t>
-  </si>
-  <si>
-    <t>Verify if user input blank email address 
-and 
-password less than 4 alphanumeric characters</t>
-  </si>
-  <si>
-    <t>Verify if user input blank email address 
-and 
-password more than 10 alphanumeric characters</t>
-  </si>
-  <si>
-    <t>Verify if user input invalid email address 
-and 
 valid but incorrect password</t>
-  </si>
-  <si>
-    <t>Verify if user input valid email address 
-and 
-valid but incorrect password</t>
-  </si>
-  <si>
-    <t>Verify if user input valid email address 
-and 
-valid and correct password</t>
-  </si>
-  <si>
-    <t>Verify if user input blank email address 
-and 
-valid but incorrect password</t>
-  </si>
-  <si>
-    <t>Verify if user input invalid email address 
-and 
-valid and correct password</t>
   </si>
   <si>
     <t>Verify if user input blank email address 
@@ -308,12 +283,37 @@
     <t>1. User input email address "TEST_EMAIL@gmail.com"
 2. User input password "tessPass!"
 3. Click "LOGIN" button</t>
+  </si>
+  <si>
+    <t>Verify if user input invalid format email address 
+and 
+valid and correct password</t>
+  </si>
+  <si>
+    <t>Verify if user input invalid format email address 
+and 
+password more than 10 alphanumeric characters</t>
+  </si>
+  <si>
+    <t>Verify if user input invalid format email address 
+and 
+blank password</t>
+  </si>
+  <si>
+    <t>Verify if user input invalid format email address 
+and 
+password less than 4 alphanumeric characters</t>
+  </si>
+  <si>
+    <t>Verify if user input invalid format email address 
+and 
+valid but incorrect password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -691,8 +691,8 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,13 +726,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
@@ -746,7 +746,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -763,7 +763,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -780,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -794,10 +794,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
@@ -811,10 +811,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
@@ -828,10 +828,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
@@ -845,10 +845,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
@@ -862,10 +862,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
@@ -879,10 +879,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>20</v>
@@ -893,13 +893,13 @@
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
@@ -913,10 +913,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
@@ -930,10 +930,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>20</v>
@@ -947,10 +947,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>20</v>
@@ -964,10 +964,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>20</v>
@@ -978,13 +978,13 @@
     </row>
     <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>20</v>
@@ -995,13 +995,13 @@
     </row>
     <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>20</v>
@@ -1012,13 +1012,13 @@
     </row>
     <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>20</v>
@@ -1029,13 +1029,13 @@
     </row>
     <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>20</v>
@@ -1046,13 +1046,13 @@
     </row>
     <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>20</v>
